--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CTCAE Grade</t>
+    <t>Adverse Event CTCAE Grade</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -334,6 +334,9 @@
   <si>
     <t xml:space="preserve">integer
 </t>
+  </si>
+  <si>
+    <t>CTCAE Grade</t>
   </si>
   <si>
     <t>The CTCAE grade must be an integer between 1 and 5, inclusive.</t>
@@ -1258,10 +1261,10 @@
         <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1324,7 +1327,7 @@
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>101</v>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
+++ b/StructureDefinition-onconova-ext-adverse-event-ctc-grade.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
